--- a/nmadb/501318.xlsx
+++ b/nmadb/501318.xlsx
@@ -479,7 +479,7 @@
   <dimension ref="A1:L36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+      <selection activeCell="G32" sqref="G32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -527,10 +527,10 @@
         <v>1</v>
       </c>
       <c r="E2">
-        <v>25</v>
+        <v>52</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -575,7 +575,7 @@
         <v>1</v>
       </c>
       <c r="E4">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F4">
         <v>2</v>
@@ -879,10 +879,10 @@
         <v>5</v>
       </c>
       <c r="E18">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="F18">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -1121,7 +1121,7 @@
         <v>7</v>
       </c>
       <c r="E31">
-        <v>566</v>
+        <v>556</v>
       </c>
       <c r="F31">
         <v>399</v>
